--- a/Stocks/PIDILITIND.xlsx
+++ b/Stocks/PIDILITIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>721.7833333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>796.11891175822529</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>791.24373848136645</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>49.080435954601853</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>10</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.899999999999977</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.77519379844961378</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>804.08659242693159</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-1.9284842002741698</v>
       </c>
       <c r="Y67">
         <v>0.75789359766992603</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>833</v>
+      </c>
+      <c r="D83">
+        <v>843.7</v>
+      </c>
+      <c r="E83">
+        <v>829</v>
+      </c>
+      <c r="F83">
+        <v>834.55</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>835.75</v>
+      </c>
+      <c r="H83">
+        <v>827.90426028816364</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>828.246673489513</v>
+      </c>
+      <c r="K83">
+        <v>810.50036442283624</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>78.014850142822709</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>5.5499999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>14.700000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.37755102040815902</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>817.45362133477204</v>
+      </c>
+      <c r="W83">
+        <v>811.97994480843681</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>5.4736765263352254</v>
+      </c>
+      <c r="Y83">
+        <v>2.7593805222412149</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>836.15</v>
+      </c>
+      <c r="D84">
+        <v>839.8</v>
+      </c>
+      <c r="E84">
+        <v>821</v>
+      </c>
+      <c r="F84">
+        <v>826.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>829</v>
+      </c>
+      <c r="H84">
+        <v>828.45213014408182</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>830.81407938073232</v>
+      </c>
+      <c r="K84">
+        <v>812.83361677331709</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>59.167806725910424</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.2000000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>18.799999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.27659574468085413</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>818.79921805249944</v>
+      </c>
+      <c r="W84">
+        <v>813.03328223003405</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>5.7659358224653943</v>
+      </c>
+      <c r="Y84">
+        <v>3.3606915822860506</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>828</v>
+      </c>
+      <c r="D85">
+        <v>836</v>
+      </c>
+      <c r="E85">
+        <v>826.45</v>
+      </c>
+      <c r="F85">
+        <v>833.95</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>832.13333333333333</v>
+      </c>
+      <c r="H85">
+        <v>830.29273173870752</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>831.96650618501405</v>
+      </c>
+      <c r="K85">
+        <v>815.85947971257997</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>68.106810904079893</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>9.5499999999999545</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.78534031413612937</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>821.13010758288419</v>
+      </c>
+      <c r="W85">
+        <v>814.58266873151297</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>6.5474388513712256</v>
+      </c>
+      <c r="Y85">
+        <v>3.9980410361030856</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>832</v>
+      </c>
+      <c r="D86">
+        <v>840</v>
+      </c>
+      <c r="E86">
+        <v>821</v>
+      </c>
+      <c r="F86">
+        <v>839.55</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>833.51666666666677</v>
+      </c>
+      <c r="H86">
+        <v>831.9046992026872</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>833.75172703278872</v>
+      </c>
+      <c r="K86">
+        <v>817.00181755422886</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>73.372074341695907</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>18.549999999999955</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.97631578947368181</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>823.96393718551735</v>
+      </c>
+      <c r="W86">
+        <v>816.43210067732684</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>7.5318365081905085</v>
+      </c>
+      <c r="Y86">
+        <v>4.70480013052057</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>839.95</v>
+      </c>
+      <c r="D87">
+        <v>849.4</v>
+      </c>
+      <c r="E87">
+        <v>836.1</v>
+      </c>
+      <c r="F87">
+        <v>842.6</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>842.69999999999993</v>
+      </c>
+      <c r="H87">
+        <v>837.30234960134362</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>837.22912102550231</v>
+      </c>
+      <c r="K87">
+        <v>821.24585809773362</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.062509900975826</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.48872180451127989</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>826.83102377236082</v>
+      </c>
+      <c r="W87">
+        <v>818.37046359011742</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>8.4605601822433982</v>
+      </c>
+      <c r="Y87">
+        <v>5.4559521408651355</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>847.35</v>
+      </c>
+      <c r="D88">
+        <v>849.5</v>
+      </c>
+      <c r="E88">
+        <v>828.55</v>
+      </c>
+      <c r="F88">
+        <v>833.15</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>837.06666666666661</v>
+      </c>
+      <c r="H88">
+        <v>837.18450813400511</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>839.95598301983512</v>
+      </c>
+      <c r="K88">
+        <v>822.86900074268169</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>54.669484049817328</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>4.6000000000000227</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>20.950000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.21957040572792424</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>827.80317396122837</v>
+      </c>
+      <c r="W88">
+        <v>819.46524406492358</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>8.3379298963047859</v>
+      </c>
+      <c r="Y88">
+        <v>6.0323476919530652</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>841.3</v>
+      </c>
+      <c r="D89">
+        <v>846.95</v>
+      </c>
+      <c r="E89">
+        <v>832.35</v>
+      </c>
+      <c r="F89">
+        <v>841.95</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>840.41666666666663</v>
+      </c>
+      <c r="H89">
+        <v>838.80058740033587</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>841.51020901542734</v>
+      </c>
+      <c r="K89">
+        <v>824.97588946653025</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>65.84983132753284</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>14.600000000000023</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.65753424657534298</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>829.97960873642398</v>
+      </c>
+      <c r="W89">
+        <v>821.13078154159587</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>8.8488271948281181</v>
+      </c>
+      <c r="Y89">
+        <v>6.5956435925280754</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>840.9</v>
+      </c>
+      <c r="D90">
+        <v>846</v>
+      </c>
+      <c r="E90">
+        <v>836.2</v>
+      </c>
+      <c r="F90">
+        <v>840</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>840.73333333333323</v>
+      </c>
+      <c r="H90">
+        <v>839.76696036683461</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>842.50794034533237</v>
+      </c>
+      <c r="K90">
+        <v>827.47013625174577</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>61.638870009258831</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.7999999999999545</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.38775510204081348</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>831.52120739235875</v>
+      </c>
+      <c r="W90">
+        <v>822.52850142740363</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>8.9927059649551211</v>
+      </c>
+      <c r="Y90">
+        <v>7.0750560670134846</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>840</v>
+      </c>
+      <c r="D91">
+        <v>849.35</v>
+      </c>
+      <c r="E91">
+        <v>840</v>
+      </c>
+      <c r="F91">
+        <v>841.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>843.61666666666667</v>
+      </c>
+      <c r="H91">
+        <v>841.6918135167507</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>844.0283980463696</v>
+      </c>
+      <c r="K91">
+        <v>830.25455041802445</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>63.860999595566817</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>9.3500000000000227</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.16042780748663063</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>833.05640625507283</v>
+      </c>
+      <c r="W91">
+        <v>823.93379761796632</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>9.1226086371065094</v>
+      </c>
+      <c r="Y91">
+        <v>7.4845665810320892</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>846.4</v>
+      </c>
+      <c r="D92">
+        <v>855</v>
+      </c>
+      <c r="E92">
+        <v>840.2</v>
+      </c>
+      <c r="F92">
+        <v>845.35</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>846.85</v>
+      </c>
+      <c r="H92">
+        <v>844.2709067583753</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>846.46653181384306</v>
+      </c>
+      <c r="K92">
+        <v>832.46465032513015</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>69.524757087562094</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>5.1499999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>14.799999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.34797297297297253</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>834.94772836967707</v>
+      </c>
+      <c r="W92">
+        <v>825.52018297959842</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>9.4275453900786488</v>
+      </c>
+      <c r="Y92">
+        <v>7.8731623428414013</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>850</v>
+      </c>
+      <c r="D93">
+        <v>853.5</v>
+      </c>
+      <c r="E93">
+        <v>840.1</v>
+      </c>
+      <c r="F93">
+        <v>845</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>846.19999999999993</v>
+      </c>
+      <c r="H93">
+        <v>845.23545337918767</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>848.02952474410017</v>
+      </c>
+      <c r="K93">
+        <v>834.16139469732343</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>68.308238008278579</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>13.399999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.36567164179104372</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>836.49423169741908</v>
+      </c>
+      <c r="W93">
+        <v>826.96313238851701</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>9.5310993089020712</v>
+      </c>
+      <c r="Y93">
+        <v>8.204749736053536</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>846.9</v>
+      </c>
+      <c r="D94">
+        <v>859</v>
+      </c>
+      <c r="E94">
+        <v>846.25</v>
+      </c>
+      <c r="F94">
+        <v>850</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>851.75</v>
+      </c>
+      <c r="H94">
+        <v>848.49272668959384</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>850.46740813430017</v>
+      </c>
+      <c r="K94">
+        <v>836.8477514312516</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>75.853119865429548</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>12.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>838.57204220550841</v>
+      </c>
+      <c r="W94">
+        <v>828.66956702640459</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>9.902475179103817</v>
+      </c>
+      <c r="Y94">
+        <v>8.5442948246635915</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>851</v>
+      </c>
+      <c r="D95">
+        <v>851.75</v>
+      </c>
+      <c r="E95">
+        <v>829.1</v>
+      </c>
+      <c r="F95">
+        <v>830.6</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>837.15</v>
+      </c>
+      <c r="H95">
+        <v>842.82136334479696</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>850.75242854890018</v>
+      </c>
+      <c r="K95">
+        <v>835.12602889097343</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>35.204492507338415</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>22.649999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>6.6225165562913968E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V95">
+        <v>837.34557417389169</v>
+      </c>
+      <c r="W95">
+        <v>828.81256206148578</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.5330121124059133</v>
+      </c>
+      <c r="Y95">
+        <v>8.5420382822120562</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>833</v>
+      </c>
+      <c r="D96">
+        <v>842.4</v>
+      </c>
+      <c r="E96">
+        <v>830</v>
+      </c>
+      <c r="F96">
+        <v>837.95</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>836.78333333333342</v>
+      </c>
+      <c r="H96">
+        <v>839.80234833906525</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>848.89633331581126</v>
+      </c>
+      <c r="K96">
+        <v>833.986911359646</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>48.320131605980009</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>7.9500000000000455</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>12.399999999999977</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.64112903225806939</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>837.4385627625237</v>
+      </c>
+      <c r="W96">
+        <v>829.48940931619052</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>7.9491534463331845</v>
+      </c>
+      <c r="Y96">
+        <v>8.4234613150362811</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>837.5</v>
+      </c>
+      <c r="D97">
+        <v>842.8</v>
+      </c>
+      <c r="E97">
+        <v>832.55</v>
+      </c>
+      <c r="F97">
+        <v>838</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>837.7833333333333</v>
+      </c>
+      <c r="H97">
+        <v>838.79284083619928</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>847.54159257896436</v>
+      </c>
+      <c r="K97">
+        <v>833.66759772416913</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>48.408931360270621</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>5.4500000000000455</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>10.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.5317073170731752</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>837.52493772213541</v>
+      </c>
+      <c r="W97">
+        <v>830.11982344091712</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>7.4051142812182889</v>
+      </c>
+      <c r="Y97">
+        <v>8.2197919082726827</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>840</v>
+      </c>
+      <c r="D98">
+        <v>844.5</v>
+      </c>
+      <c r="E98">
+        <v>835.3</v>
+      </c>
+      <c r="F98">
+        <v>837.3</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>839.0333333333333</v>
+      </c>
+      <c r="H98">
+        <v>838.91308708476629</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>846.86568311697226</v>
+      </c>
+      <c r="K98">
+        <v>834.03035378546485</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>46.995784438478644</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.2000000000000455</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.21739130434782503</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>837.49033191872991</v>
+      </c>
+      <c r="W98">
+        <v>830.65168837121951</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>6.8386435475104008</v>
+      </c>
+      <c r="Y98">
+        <v>7.9435622361202265</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>840.5</v>
+      </c>
+      <c r="D99">
+        <v>866</v>
+      </c>
+      <c r="E99">
+        <v>833.1</v>
+      </c>
+      <c r="F99">
+        <v>865.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>855.01666666666677</v>
+      </c>
+      <c r="H99">
+        <v>846.96487687571653</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>851.11775353542282</v>
+      </c>
+      <c r="K99">
+        <v>833.82360849980603</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>78.742846154326756</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>32.850000000000023</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>32.899999999999977</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.99848024316109563</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>841.86874239277142</v>
+      </c>
+      <c r="W99">
+        <v>833.26637812149954</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>8.6023642712718811</v>
+      </c>
+      <c r="Y99">
+        <v>8.0753226431505567</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>866</v>
+      </c>
+      <c r="D100">
+        <v>868.45</v>
+      </c>
+      <c r="E100">
+        <v>849.05</v>
+      </c>
+      <c r="F100">
+        <v>850.7</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>856.06666666666661</v>
+      </c>
+      <c r="H100">
+        <v>851.51577177119157</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>854.96936386088441</v>
+      </c>
+      <c r="K100">
+        <v>837.20725105540464</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>56.304477179317537</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000909</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>19.400000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>8.5051546391756869E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>843.22739740926818</v>
+      </c>
+      <c r="W100">
+        <v>834.557757519907</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>8.6696398893611786</v>
+      </c>
+      <c r="Y100">
+        <v>8.1941860923926804</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>852</v>
+      </c>
+      <c r="D101">
+        <v>855</v>
+      </c>
+      <c r="E101">
+        <v>837.45</v>
+      </c>
+      <c r="F101">
+        <v>839.95</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>844.13333333333333</v>
+      </c>
+      <c r="H101">
+        <v>847.8245525522625</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>854.97617189179903</v>
+      </c>
+      <c r="K101">
+        <v>837.26119526531477</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>45.004350566926654</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>17.549999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.14245014245014281</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>842.72318242322694</v>
+      </c>
+      <c r="W101">
+        <v>834.95718288880278</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>7.7659995344241679</v>
+      </c>
+      <c r="Y101">
+        <v>8.1085487807989782</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>837.5</v>
+      </c>
+      <c r="D102">
+        <v>839.45</v>
+      </c>
+      <c r="E102">
+        <v>811.75</v>
+      </c>
+      <c r="F102">
+        <v>813</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>821.4</v>
+      </c>
+      <c r="H102">
+        <v>834.6122762761313</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>851.52591147139924</v>
+      </c>
+      <c r="K102">
+        <v>831.59204076191145</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>27.628206932760079</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>27.700000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.5126353790613645E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>838.15038512734588</v>
+      </c>
+      <c r="W102">
+        <v>833.33072489703966</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>4.8196602303062264</v>
+      </c>
+      <c r="Y102">
+        <v>7.4507710707004282</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>813.05</v>
+      </c>
+      <c r="D103">
+        <v>814.45</v>
+      </c>
+      <c r="E103">
+        <v>796</v>
+      </c>
+      <c r="F103">
+        <v>802.7</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>804.38333333333333</v>
+      </c>
+      <c r="H103">
+        <v>819.49780480473237</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>843.28682003331051</v>
+      </c>
+      <c r="K103">
+        <v>823.68269837037553</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.325696035671058</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>6.7000000000000455</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>18.450000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.36314363143631595</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>832.69647972313885</v>
+      </c>
+      <c r="W103">
+        <v>831.06178231207377</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.6346974110650763</v>
+      </c>
+      <c r="Y103">
+        <v>6.2875563387733582</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>804.8</v>
+      </c>
+      <c r="D104">
+        <v>804.8</v>
+      </c>
+      <c r="E104">
+        <v>785.15</v>
+      </c>
+      <c r="F104">
+        <v>792.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>794.15</v>
+      </c>
+      <c r="H104">
+        <v>806.82390240236623</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>834.73419335924154</v>
+      </c>
+      <c r="K104">
+        <v>815.1198765102921</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>19.555884038716243</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>7.3500000000000227</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>19.649999999999977</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.37404580152671912</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>826.51240591957901</v>
+      </c>
+      <c r="W104">
+        <v>828.20535399266089</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.6929480730818796</v>
+      </c>
+      <c r="Y104">
+        <v>4.691455456402311</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>792.25</v>
+      </c>
+      <c r="D105">
+        <v>797.2</v>
+      </c>
+      <c r="E105">
+        <v>775.3</v>
+      </c>
+      <c r="F105">
+        <v>780.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>784.33333333333337</v>
+      </c>
+      <c r="H105">
+        <v>795.57861786784974</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>826.39326150163231</v>
+      </c>
+      <c r="K105">
+        <v>806.27101506356053</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>15.800551408729904</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>5.2000000000000455</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.23744292237443032</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>819.4335742396438</v>
+      </c>
+      <c r="W105">
+        <v>824.67162406727857</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-5.238049827634768</v>
+      </c>
+      <c r="Y105">
+        <v>2.7055543995948952</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>778.65</v>
+      </c>
+      <c r="D106">
+        <v>786.7</v>
+      </c>
+      <c r="E106">
+        <v>775</v>
+      </c>
+      <c r="F106">
+        <v>776.3</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>779.33333333333337</v>
+      </c>
+      <c r="H106">
+        <v>787.4559756005915</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>817.57253672349179</v>
+      </c>
+      <c r="K106">
+        <v>799.32190060499147</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>14.575973072451182</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.2999999999999545</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>11.700000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.11111111111110679</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>812.79763974123705</v>
+      </c>
+      <c r="W106">
+        <v>821.0885408030357</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-8.2909010617986496</v>
+      </c>
+      <c r="Y106">
+        <v>0.50626330731618596</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>785.35</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>782.25</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>780.85</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>779.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>782</v>
+      </c>
+      <c r="D107">
+        <v>808</v>
+      </c>
+      <c r="E107">
+        <v>778.1</v>
+      </c>
+      <c r="F107">
+        <v>795.55</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>793.88333333333321</v>
+      </c>
+      <c r="H107">
+        <v>790.66965446696236</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>815.44530634049363</v>
+      </c>
+      <c r="K107">
+        <v>794.60592269277117</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.84304221045246</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>17.449999999999932</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>29.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.58361204013377743</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>810.1441567041237</v>
+      </c>
+      <c r="W107">
+        <v>819.19679703984787</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-9.0526403357241634</v>
+      </c>
+      <c r="Y107">
+        <v>-1.405517421291884</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
